--- a/similarities/split_global/harmonic_similarity_timestamps_225.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_225.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,754 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>isophonics_236</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>isophonics_203</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D']]</t>
+          <t>['C:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>['C', 'G', 'D']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:02:02.780000', '0:02:17.555000')]</t>
+          <t>('0:00:11.102000', '0:00:15.808000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+          <t>('0:00:53.783786', '0:00:58.683197')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=122.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.102</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-203#t=53.783786</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>schubert-winterreise_15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj/B', 'C:min']]</t>
+          <t>['E:7', 'A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:13.520000', '0:00:19.080000')]</t>
+          <t>('0:00:07.360000', '0:00:19.880000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:10.380000', '0:00:16.320000')]</t>
+          <t>('0:00:23.420000', '0:00:33.960000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=7.36</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=23.42</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_213</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>isophonics_4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'E:7', 'A']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'C:7', 'F']]</t>
+          <t>['C:min', 'F:min', 'C:min/5']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:14.752537', '0:00:27.488682')]</t>
+          <t>('0:00:07.220000', '0:00:10.760000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:36.970000', '0:00:42.100000')]</t>
+          <t>('0:01:24.323000', '0:01:27.713000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-213#t=14.752537']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=7.22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=36.97']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=84.323</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>isophonics_58</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:16.920000', '0:00:23.900000')]</t>
+          <t>('0:00:19.500000', '0:00:30.320000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:00:31.527551', '0:00:47.026870')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=19.5</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=31.527551</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['C#/F', 'G#:7/D#', 'C#/F']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
+          <t>('0:00:43.340000', '0:00:45.200000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:03.884104', '0:00:23.632675')]</t>
+          <t>('0:00:39.800000', '0:00:45.400000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=43.34</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=39.8</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj']]</t>
+          <t>['F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>['Ab:7', 'Db', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:46.900000', '0:00:55.240000')]</t>
+          <t>('0:01:16.560000', '0:01:31.180000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:23.502731', '0:01:34.167952')]</t>
+          <t>('0:01:55.080000', '0:02:05.160000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=46.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=76.56</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=83.502731']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=115.08</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:01.829138', '0:00:15.586961')]</t>
+          <t>('0:01:14.400000', '0:01:26.060000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+          <t>('0:00:19.140000', '0:00:21.620000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=19.14</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_152</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj', 'A:maj', 'D:maj']]</t>
+          <t>['A:min', 'B:hdim7/D', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E', 'A']]</t>
+          <t>['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:38.543000', '0:01:03.135000')]</t>
+          <t>('0:00:11', '0:00:17.900000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:40.490000', '0:00:51.380000')]</t>
+          <t>('0:01:42.760000', '0:01:58.780000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=38.543']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=11.0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=102.76</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']]</t>
+          <t>['Eb', 'Bb', 'Eb']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
+          <t>['D/5', 'A', 'D']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:00.680000', '0:00:03.740000')]</t>
+          <t>('0:00:51.839081', '0:01:03.042709')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:46.740000', '0:00:58.460000')]</t>
+          <t>('0:00:12.743000', '0:00:16.216000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=51.839081</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=46.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=12.743</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:04:00.860000', '0:04:13.720000')]</t>
+          <t>('0:00:18.420000', '0:00:24.340000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:04:02.220000', '0:04:09.260000')]</t>
+          <t>('0:01:14.500000', '0:01:20.420000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=240.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=18.42</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=242.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F:7/D#', 'A#:maj/D', 'F:maj/C']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:00:57.600000', '0:01:00.720000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:01:05.640000', '0:01:10.540000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=57.6</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=65.64</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'F']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:56.880000', '0:01:04.440000')]</t>
+          <t>('0:00:10.380000', '0:00:16.320000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:29.719863', '0:00:35.722222')]</t>
+          <t>('0:00:13.740000', '0:00:22.560000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=56.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-282#t=29.719863']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:16.720000', '0:00:26.460000')]</t>
+          <t>('0:01:24.620000', '0:01:31.740000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:43.380000', '0:00:45.800000')]</t>
+          <t>('0:00:39.040000', '0:00:46.100000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=16.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C:min', 'F:7/A', 'A#:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F', 'C:7', 'F'], ['F', 'Bb', 'F']]</t>
+          <t>['C:min', 'F:7/C', 'A#']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:03.840000', '0:01:05.240000'), ('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:00:27.940000', '0:00:33.160000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:00.590000', '0:00:16.750000'), ('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:00:40.440000', '0:00:43.320000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=27.94</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=0.59', 'https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=40.44</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_7</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_100</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['A:min/E', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['A:min', 'E:(3,5,b7,b9)/A', 'A:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:43.340000', '0:00:59.340000')]</t>
+          <t>('0:01:01.880000', '0:01:07.800000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:12.510000', '0:00:13.910000')]</t>
+          <t>('0:00:32.380000', '0:00:46.680000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=43.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=61.88</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-100#t=32.38</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
